--- a/NICEDesign/Works/T_RM_COMMON.xlsx
+++ b/NICEDesign/Works/T_RM_COMMON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="20475" windowHeight="9630" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17985" windowHeight="9300" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T_RM_COMMON_9999" sheetId="6" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="IO구분_0120" sheetId="9" r:id="rId9"/>
     <sheet name="업무구분_0130" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P26"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="256">
   <si>
     <t>001</t>
   </si>
@@ -840,6 +841,38 @@
   </si>
   <si>
     <t>2014-08-22 17:54:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCL2SVR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>710</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR2LCL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC2SVR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>810</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVR2MAC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1610,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -5029,10 +5062,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5225,6 +5258,114 @@
         <v>199</v>
       </c>
       <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/NICEDesign/Works/T_RM_COMMON.xlsx
+++ b/NICEDesign/Works/T_RM_COMMON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17985" windowHeight="9300" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17985" windowHeight="9300" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="T_RM_COMMON_9999" sheetId="6" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="전문상태_0110" sheetId="8" r:id="rId8"/>
     <sheet name="IO구분_0120" sheetId="9" r:id="rId9"/>
     <sheet name="업무구분_0130" sheetId="10" r:id="rId10"/>
+    <sheet name="파일구분_0140" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:P26"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="280">
   <si>
     <t>001</t>
   </si>
@@ -873,6 +873,97 @@
   </si>
   <si>
     <t>SVR2MAC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0140</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-08-25 11:09:00</t>
+  </si>
+  <si>
+    <t>2014-08-25 11:09:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일구분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0140</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반파일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text저널+이미지+CSV</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text저널</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉시촬영이미지</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1157,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1370,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,113 +1586,110 @@
       <c r="A5">
         <v>9999</v>
       </c>
-      <c r="B5" s="21">
-        <v>2100</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9999</v>
       </c>
       <c r="B6" s="21">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I6" s="24"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9999</v>
       </c>
       <c r="B7" s="21">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9999</v>
       </c>
       <c r="B8" s="21">
-        <v>2110</v>
+        <v>1110</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
@@ -1609,29 +1700,58 @@
         <v>9999</v>
       </c>
       <c r="B9" s="21">
-        <v>2210</v>
+        <v>2110</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9999</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2210</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1644,7 +1764,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A13" sqref="A13:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2352,6 +2472,287 @@
     <row r="55" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="57" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>9999</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5064,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
